--- a/test.xlsx
+++ b/test.xlsx
@@ -375,48 +375,3108 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:AM26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>2020</v>
+        <v>1</v>
       </c>
       <c r="B1" t="str">
-        <v>column1</v>
+        <v>2</v>
       </c>
       <c r="C1" t="str">
-        <v>column2</v>
+        <v>2017</v>
       </c>
       <c r="D1" t="str">
-        <v>Q2 2020</v>
+        <v>2018</v>
       </c>
       <c r="E1" t="str">
-        <v>04/2020</v>
+        <v>2019</v>
+      </c>
+      <c r="F1" t="str">
+        <v>Q4 2017</v>
+      </c>
+      <c r="G1" t="str">
+        <v>Q1 2018</v>
+      </c>
+      <c r="H1" t="str">
+        <v>Q2 2018</v>
+      </c>
+      <c r="I1" t="str">
+        <v>Q3 2018</v>
+      </c>
+      <c r="J1" t="str">
+        <v>Q4 2018</v>
+      </c>
+      <c r="K1" t="str">
+        <v>Q1 2019</v>
+      </c>
+      <c r="L1" t="str">
+        <v>Q2 2019</v>
+      </c>
+      <c r="M1" t="str">
+        <v>Q3 2019</v>
+      </c>
+      <c r="N1" t="str">
+        <v>Q4 2019</v>
+      </c>
+      <c r="O1" t="str">
+        <v>12/2017</v>
+      </c>
+      <c r="P1" t="str">
+        <v>01/2018</v>
+      </c>
+      <c r="Q1" t="str">
+        <v>02/2018</v>
+      </c>
+      <c r="R1" t="str">
+        <v>03/2018</v>
+      </c>
+      <c r="S1" t="str">
+        <v>04/2018</v>
+      </c>
+      <c r="T1" t="str">
+        <v>05/2018</v>
+      </c>
+      <c r="U1" t="str">
+        <v>06/2018</v>
+      </c>
+      <c r="V1" t="str">
+        <v>07/2018</v>
+      </c>
+      <c r="W1" t="str">
+        <v>08/2018</v>
+      </c>
+      <c r="X1" t="str">
+        <v>09/2018</v>
+      </c>
+      <c r="Y1" t="str">
+        <v>10/2018</v>
+      </c>
+      <c r="Z1" t="str">
+        <v>11/2018</v>
+      </c>
+      <c r="AA1" t="str">
+        <v>12/2018</v>
+      </c>
+      <c r="AB1" t="str">
+        <v>01/2019</v>
+      </c>
+      <c r="AC1" t="str">
+        <v>02/2019</v>
+      </c>
+      <c r="AD1" t="str">
+        <v>03/2019</v>
+      </c>
+      <c r="AE1" t="str">
+        <v>04/2019</v>
+      </c>
+      <c r="AF1" t="str">
+        <v>05/2019</v>
+      </c>
+      <c r="AG1" t="str">
+        <v>06/2019</v>
+      </c>
+      <c r="AH1" t="str">
+        <v>07/2019</v>
+      </c>
+      <c r="AI1" t="str">
+        <v>08/2019</v>
+      </c>
+      <c r="AJ1" t="str">
+        <v>09/2019</v>
+      </c>
+      <c r="AK1" t="str">
+        <v>10/2019</v>
+      </c>
+      <c r="AL1" t="str">
+        <v>11/2019</v>
+      </c>
+      <c r="AM1" t="str">
+        <v>12/2019</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2">
-        <v>54375</v>
-      </c>
-      <c r="B2" t="str">
-        <v>04/2020</v>
+      <c r="A2" t="str">
+        <v>12/2017</v>
+      </c>
+      <c r="B2">
+        <v>35708</v>
       </c>
       <c r="C2">
-        <v>54375</v>
+        <v>4463.5</v>
       </c>
       <c r="D2">
-        <v>6796.875</v>
+        <v>31244.5</v>
       </c>
       <c r="E2">
-        <v>6796.875</v>
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>4463.5</v>
+      </c>
+      <c r="G2">
+        <v>13390.5</v>
+      </c>
+      <c r="H2">
+        <v>13390.5</v>
+      </c>
+      <c r="I2">
+        <v>4463.5</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>4463.5</v>
+      </c>
+      <c r="P2">
+        <v>4463.5</v>
+      </c>
+      <c r="Q2">
+        <v>4463.5</v>
+      </c>
+      <c r="R2">
+        <v>4463.5</v>
+      </c>
+      <c r="S2">
+        <v>4463.5</v>
+      </c>
+      <c r="T2">
+        <v>4463.5</v>
+      </c>
+      <c r="U2">
+        <v>4463.5</v>
+      </c>
+      <c r="V2">
+        <v>4463.5</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>0</v>
+      </c>
+      <c r="AG2">
+        <v>0</v>
+      </c>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
+      </c>
+      <c r="AJ2">
+        <v>0</v>
+      </c>
+      <c r="AK2">
+        <v>0</v>
+      </c>
+      <c r="AL2">
+        <v>0</v>
+      </c>
+      <c r="AM2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>01/2018</v>
+      </c>
+      <c r="B3">
+        <v>63993</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>63993</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>23997.375</v>
+      </c>
+      <c r="H3">
+        <v>23997.375</v>
+      </c>
+      <c r="I3">
+        <v>15998.25</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>7999.125</v>
+      </c>
+      <c r="Q3">
+        <v>7999.125</v>
+      </c>
+      <c r="R3">
+        <v>7999.125</v>
+      </c>
+      <c r="S3">
+        <v>7999.125</v>
+      </c>
+      <c r="T3">
+        <v>7999.125</v>
+      </c>
+      <c r="U3">
+        <v>7999.125</v>
+      </c>
+      <c r="V3">
+        <v>7999.125</v>
+      </c>
+      <c r="W3">
+        <v>7999.125</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>0</v>
+      </c>
+      <c r="AG3">
+        <v>0</v>
+      </c>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
+      </c>
+      <c r="AJ3">
+        <v>0</v>
+      </c>
+      <c r="AK3">
+        <v>0</v>
+      </c>
+      <c r="AL3">
+        <v>0</v>
+      </c>
+      <c r="AM3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>02/2018</v>
+      </c>
+      <c r="B4">
+        <v>92068</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>92068</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>34525.5</v>
+      </c>
+      <c r="H4">
+        <v>34525.5</v>
+      </c>
+      <c r="I4">
+        <v>23017</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>11508.5</v>
+      </c>
+      <c r="R4">
+        <v>11508.5</v>
+      </c>
+      <c r="S4">
+        <v>11508.5</v>
+      </c>
+      <c r="T4">
+        <v>11508.5</v>
+      </c>
+      <c r="U4">
+        <v>11508.5</v>
+      </c>
+      <c r="V4">
+        <v>11508.5</v>
+      </c>
+      <c r="W4">
+        <v>11508.5</v>
+      </c>
+      <c r="X4">
+        <v>11508.5</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
+      </c>
+      <c r="AJ4">
+        <v>0</v>
+      </c>
+      <c r="AK4">
+        <v>0</v>
+      </c>
+      <c r="AL4">
+        <v>0</v>
+      </c>
+      <c r="AM4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>03/2018</v>
+      </c>
+      <c r="B5">
+        <v>79122</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>79122</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>29670.75</v>
+      </c>
+      <c r="H5">
+        <v>29670.75</v>
+      </c>
+      <c r="I5">
+        <v>19780.5</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>9890.25</v>
+      </c>
+      <c r="S5">
+        <v>9890.25</v>
+      </c>
+      <c r="T5">
+        <v>9890.25</v>
+      </c>
+      <c r="U5">
+        <v>9890.25</v>
+      </c>
+      <c r="V5">
+        <v>9890.25</v>
+      </c>
+      <c r="W5">
+        <v>9890.25</v>
+      </c>
+      <c r="X5">
+        <v>9890.25</v>
+      </c>
+      <c r="Y5">
+        <v>9890.25</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
+      </c>
+      <c r="AJ5">
+        <v>0</v>
+      </c>
+      <c r="AK5">
+        <v>0</v>
+      </c>
+      <c r="AL5">
+        <v>0</v>
+      </c>
+      <c r="AM5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>04/2018</v>
+      </c>
+      <c r="B6">
+        <v>43909</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>43909</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>16465.875</v>
+      </c>
+      <c r="I6">
+        <v>16465.875</v>
+      </c>
+      <c r="J6">
+        <v>10977.25</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>5488.625</v>
+      </c>
+      <c r="T6">
+        <v>5488.625</v>
+      </c>
+      <c r="U6">
+        <v>5488.625</v>
+      </c>
+      <c r="V6">
+        <v>5488.625</v>
+      </c>
+      <c r="W6">
+        <v>5488.625</v>
+      </c>
+      <c r="X6">
+        <v>5488.625</v>
+      </c>
+      <c r="Y6">
+        <v>5488.625</v>
+      </c>
+      <c r="Z6">
+        <v>5488.625</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
+      <c r="AG6">
+        <v>0</v>
+      </c>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
+      </c>
+      <c r="AJ6">
+        <v>0</v>
+      </c>
+      <c r="AK6">
+        <v>0</v>
+      </c>
+      <c r="AL6">
+        <v>0</v>
+      </c>
+      <c r="AM6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>05/2018</v>
+      </c>
+      <c r="B7">
+        <v>55886</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>55886</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>20957.25</v>
+      </c>
+      <c r="I7">
+        <v>20957.25</v>
+      </c>
+      <c r="J7">
+        <v>13971.5</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>6985.75</v>
+      </c>
+      <c r="U7">
+        <v>6985.75</v>
+      </c>
+      <c r="V7">
+        <v>6985.75</v>
+      </c>
+      <c r="W7">
+        <v>6985.75</v>
+      </c>
+      <c r="X7">
+        <v>6985.75</v>
+      </c>
+      <c r="Y7">
+        <v>6985.75</v>
+      </c>
+      <c r="Z7">
+        <v>6985.75</v>
+      </c>
+      <c r="AA7">
+        <v>6985.75</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+      <c r="AC7">
+        <v>0</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
+      </c>
+      <c r="AF7">
+        <v>0</v>
+      </c>
+      <c r="AG7">
+        <v>0</v>
+      </c>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>0</v>
+      </c>
+      <c r="AJ7">
+        <v>0</v>
+      </c>
+      <c r="AK7">
+        <v>0</v>
+      </c>
+      <c r="AL7">
+        <v>0</v>
+      </c>
+      <c r="AM7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>06/2018</v>
+      </c>
+      <c r="B8">
+        <v>64464</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>64464</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>24174</v>
+      </c>
+      <c r="I8">
+        <v>24174</v>
+      </c>
+      <c r="J8">
+        <v>16116</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>8058</v>
+      </c>
+      <c r="V8">
+        <v>8058</v>
+      </c>
+      <c r="W8">
+        <v>8058</v>
+      </c>
+      <c r="X8">
+        <v>8058</v>
+      </c>
+      <c r="Y8">
+        <v>8058</v>
+      </c>
+      <c r="Z8">
+        <v>8058</v>
+      </c>
+      <c r="AA8">
+        <v>8058</v>
+      </c>
+      <c r="AB8">
+        <v>8058</v>
+      </c>
+      <c r="AC8">
+        <v>0</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
+      </c>
+      <c r="AF8">
+        <v>0</v>
+      </c>
+      <c r="AG8">
+        <v>0</v>
+      </c>
+      <c r="AH8">
+        <v>0</v>
+      </c>
+      <c r="AI8">
+        <v>0</v>
+      </c>
+      <c r="AJ8">
+        <v>0</v>
+      </c>
+      <c r="AK8">
+        <v>0</v>
+      </c>
+      <c r="AL8">
+        <v>0</v>
+      </c>
+      <c r="AM8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>07/2018</v>
+      </c>
+      <c r="B9">
+        <v>64141</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>64141</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>24052.875</v>
+      </c>
+      <c r="J9">
+        <v>24052.875</v>
+      </c>
+      <c r="K9">
+        <v>16035.25</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>8017.625</v>
+      </c>
+      <c r="W9">
+        <v>8017.625</v>
+      </c>
+      <c r="X9">
+        <v>8017.625</v>
+      </c>
+      <c r="Y9">
+        <v>8017.625</v>
+      </c>
+      <c r="Z9">
+        <v>8017.625</v>
+      </c>
+      <c r="AA9">
+        <v>8017.625</v>
+      </c>
+      <c r="AB9">
+        <v>8017.625</v>
+      </c>
+      <c r="AC9">
+        <v>8017.625</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
+      </c>
+      <c r="AF9">
+        <v>0</v>
+      </c>
+      <c r="AG9">
+        <v>0</v>
+      </c>
+      <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AI9">
+        <v>0</v>
+      </c>
+      <c r="AJ9">
+        <v>0</v>
+      </c>
+      <c r="AK9">
+        <v>0</v>
+      </c>
+      <c r="AL9">
+        <v>0</v>
+      </c>
+      <c r="AM9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>08/2018</v>
+      </c>
+      <c r="B10">
+        <v>4138</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>4138</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>1551.75</v>
+      </c>
+      <c r="J10">
+        <v>1551.75</v>
+      </c>
+      <c r="K10">
+        <v>1034.5</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>517.25</v>
+      </c>
+      <c r="X10">
+        <v>517.25</v>
+      </c>
+      <c r="Y10">
+        <v>517.25</v>
+      </c>
+      <c r="Z10">
+        <v>517.25</v>
+      </c>
+      <c r="AA10">
+        <v>517.25</v>
+      </c>
+      <c r="AB10">
+        <v>517.25</v>
+      </c>
+      <c r="AC10">
+        <v>517.25</v>
+      </c>
+      <c r="AD10">
+        <v>517.25</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
+      </c>
+      <c r="AF10">
+        <v>0</v>
+      </c>
+      <c r="AG10">
+        <v>0</v>
+      </c>
+      <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <v>0</v>
+      </c>
+      <c r="AJ10">
+        <v>0</v>
+      </c>
+      <c r="AK10">
+        <v>0</v>
+      </c>
+      <c r="AL10">
+        <v>0</v>
+      </c>
+      <c r="AM10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>09/2018</v>
+      </c>
+      <c r="B11">
+        <v>23789</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>23789</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>8920.875</v>
+      </c>
+      <c r="J11">
+        <v>8920.875</v>
+      </c>
+      <c r="K11">
+        <v>5947.25</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <v>2973.625</v>
+      </c>
+      <c r="Y11">
+        <v>2973.625</v>
+      </c>
+      <c r="Z11">
+        <v>2973.625</v>
+      </c>
+      <c r="AA11">
+        <v>2973.625</v>
+      </c>
+      <c r="AB11">
+        <v>2973.625</v>
+      </c>
+      <c r="AC11">
+        <v>2973.625</v>
+      </c>
+      <c r="AD11">
+        <v>2973.625</v>
+      </c>
+      <c r="AE11">
+        <v>2973.625</v>
+      </c>
+      <c r="AF11">
+        <v>0</v>
+      </c>
+      <c r="AG11">
+        <v>0</v>
+      </c>
+      <c r="AH11">
+        <v>0</v>
+      </c>
+      <c r="AI11">
+        <v>0</v>
+      </c>
+      <c r="AJ11">
+        <v>0</v>
+      </c>
+      <c r="AK11">
+        <v>0</v>
+      </c>
+      <c r="AL11">
+        <v>0</v>
+      </c>
+      <c r="AM11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>10/2018</v>
+      </c>
+      <c r="B12">
+        <v>2985</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>2985</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>1119.375</v>
+      </c>
+      <c r="K12">
+        <v>1119.375</v>
+      </c>
+      <c r="L12">
+        <v>746.25</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <v>373.125</v>
+      </c>
+      <c r="Z12">
+        <v>373.125</v>
+      </c>
+      <c r="AA12">
+        <v>373.125</v>
+      </c>
+      <c r="AB12">
+        <v>373.125</v>
+      </c>
+      <c r="AC12">
+        <v>373.125</v>
+      </c>
+      <c r="AD12">
+        <v>373.125</v>
+      </c>
+      <c r="AE12">
+        <v>373.125</v>
+      </c>
+      <c r="AF12">
+        <v>373.125</v>
+      </c>
+      <c r="AG12">
+        <v>0</v>
+      </c>
+      <c r="AH12">
+        <v>0</v>
+      </c>
+      <c r="AI12">
+        <v>0</v>
+      </c>
+      <c r="AJ12">
+        <v>0</v>
+      </c>
+      <c r="AK12">
+        <v>0</v>
+      </c>
+      <c r="AL12">
+        <v>0</v>
+      </c>
+      <c r="AM12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>11/2018</v>
+      </c>
+      <c r="B13">
+        <v>52735</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>52735</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>19775.625</v>
+      </c>
+      <c r="K13">
+        <v>19775.625</v>
+      </c>
+      <c r="L13">
+        <v>13183.75</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="Y13">
+        <v>0</v>
+      </c>
+      <c r="Z13">
+        <v>6591.875</v>
+      </c>
+      <c r="AA13">
+        <v>6591.875</v>
+      </c>
+      <c r="AB13">
+        <v>6591.875</v>
+      </c>
+      <c r="AC13">
+        <v>6591.875</v>
+      </c>
+      <c r="AD13">
+        <v>6591.875</v>
+      </c>
+      <c r="AE13">
+        <v>6591.875</v>
+      </c>
+      <c r="AF13">
+        <v>6591.875</v>
+      </c>
+      <c r="AG13">
+        <v>6591.875</v>
+      </c>
+      <c r="AH13">
+        <v>0</v>
+      </c>
+      <c r="AI13">
+        <v>0</v>
+      </c>
+      <c r="AJ13">
+        <v>0</v>
+      </c>
+      <c r="AK13">
+        <v>0</v>
+      </c>
+      <c r="AL13">
+        <v>0</v>
+      </c>
+      <c r="AM13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>12/2018</v>
+      </c>
+      <c r="B14">
+        <v>97872</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>97872</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>36702</v>
+      </c>
+      <c r="K14">
+        <v>36702</v>
+      </c>
+      <c r="L14">
+        <v>24468</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <v>0</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <v>0</v>
+      </c>
+      <c r="Y14">
+        <v>0</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+      <c r="AA14">
+        <v>12234</v>
+      </c>
+      <c r="AB14">
+        <v>12234</v>
+      </c>
+      <c r="AC14">
+        <v>12234</v>
+      </c>
+      <c r="AD14">
+        <v>12234</v>
+      </c>
+      <c r="AE14">
+        <v>12234</v>
+      </c>
+      <c r="AF14">
+        <v>12234</v>
+      </c>
+      <c r="AG14">
+        <v>12234</v>
+      </c>
+      <c r="AH14">
+        <v>12234</v>
+      </c>
+      <c r="AI14">
+        <v>0</v>
+      </c>
+      <c r="AJ14">
+        <v>0</v>
+      </c>
+      <c r="AK14">
+        <v>0</v>
+      </c>
+      <c r="AL14">
+        <v>0</v>
+      </c>
+      <c r="AM14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>01/2019</v>
+      </c>
+      <c r="B15">
+        <v>84214</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>84214</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>31580.25</v>
+      </c>
+      <c r="L15">
+        <v>31580.25</v>
+      </c>
+      <c r="M15">
+        <v>21053.5</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <v>0</v>
+      </c>
+      <c r="Y15">
+        <v>0</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+      <c r="AA15">
+        <v>0</v>
+      </c>
+      <c r="AB15">
+        <v>10526.75</v>
+      </c>
+      <c r="AC15">
+        <v>10526.75</v>
+      </c>
+      <c r="AD15">
+        <v>10526.75</v>
+      </c>
+      <c r="AE15">
+        <v>10526.75</v>
+      </c>
+      <c r="AF15">
+        <v>10526.75</v>
+      </c>
+      <c r="AG15">
+        <v>10526.75</v>
+      </c>
+      <c r="AH15">
+        <v>10526.75</v>
+      </c>
+      <c r="AI15">
+        <v>10526.75</v>
+      </c>
+      <c r="AJ15">
+        <v>0</v>
+      </c>
+      <c r="AK15">
+        <v>0</v>
+      </c>
+      <c r="AL15">
+        <v>0</v>
+      </c>
+      <c r="AM15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>02/2019</v>
+      </c>
+      <c r="B16">
+        <v>40769</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>40769</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>15288.375</v>
+      </c>
+      <c r="L16">
+        <v>15288.375</v>
+      </c>
+      <c r="M16">
+        <v>10192.25</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
+      </c>
+      <c r="Y16">
+        <v>0</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+      <c r="AA16">
+        <v>0</v>
+      </c>
+      <c r="AB16">
+        <v>0</v>
+      </c>
+      <c r="AC16">
+        <v>5096.125</v>
+      </c>
+      <c r="AD16">
+        <v>5096.125</v>
+      </c>
+      <c r="AE16">
+        <v>5096.125</v>
+      </c>
+      <c r="AF16">
+        <v>5096.125</v>
+      </c>
+      <c r="AG16">
+        <v>5096.125</v>
+      </c>
+      <c r="AH16">
+        <v>5096.125</v>
+      </c>
+      <c r="AI16">
+        <v>5096.125</v>
+      </c>
+      <c r="AJ16">
+        <v>5096.125</v>
+      </c>
+      <c r="AK16">
+        <v>0</v>
+      </c>
+      <c r="AL16">
+        <v>0</v>
+      </c>
+      <c r="AM16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>03/2019</v>
+      </c>
+      <c r="B17">
+        <v>41512</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>41512</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>15567</v>
+      </c>
+      <c r="L17">
+        <v>15567</v>
+      </c>
+      <c r="M17">
+        <v>10378</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <v>0</v>
+      </c>
+      <c r="Y17">
+        <v>0</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+      <c r="AA17">
+        <v>0</v>
+      </c>
+      <c r="AB17">
+        <v>0</v>
+      </c>
+      <c r="AC17">
+        <v>0</v>
+      </c>
+      <c r="AD17">
+        <v>5189</v>
+      </c>
+      <c r="AE17">
+        <v>5189</v>
+      </c>
+      <c r="AF17">
+        <v>5189</v>
+      </c>
+      <c r="AG17">
+        <v>5189</v>
+      </c>
+      <c r="AH17">
+        <v>5189</v>
+      </c>
+      <c r="AI17">
+        <v>5189</v>
+      </c>
+      <c r="AJ17">
+        <v>5189</v>
+      </c>
+      <c r="AK17">
+        <v>5189</v>
+      </c>
+      <c r="AL17">
+        <v>0</v>
+      </c>
+      <c r="AM17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>04/2019</v>
+      </c>
+      <c r="B18">
+        <v>46084</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>46084</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>17281.5</v>
+      </c>
+      <c r="M18">
+        <v>17281.5</v>
+      </c>
+      <c r="N18">
+        <v>11521</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
+      <c r="V18">
+        <v>0</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <v>0</v>
+      </c>
+      <c r="Y18">
+        <v>0</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+      <c r="AA18">
+        <v>0</v>
+      </c>
+      <c r="AB18">
+        <v>0</v>
+      </c>
+      <c r="AC18">
+        <v>0</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <v>5760.5</v>
+      </c>
+      <c r="AF18">
+        <v>5760.5</v>
+      </c>
+      <c r="AG18">
+        <v>5760.5</v>
+      </c>
+      <c r="AH18">
+        <v>5760.5</v>
+      </c>
+      <c r="AI18">
+        <v>5760.5</v>
+      </c>
+      <c r="AJ18">
+        <v>5760.5</v>
+      </c>
+      <c r="AK18">
+        <v>5760.5</v>
+      </c>
+      <c r="AL18">
+        <v>5760.5</v>
+      </c>
+      <c r="AM18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>05/2019</v>
+      </c>
+      <c r="B19">
+        <v>16351</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>16351</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>6131.625</v>
+      </c>
+      <c r="M19">
+        <v>6131.625</v>
+      </c>
+      <c r="N19">
+        <v>4087.75</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <v>0</v>
+      </c>
+      <c r="V19">
+        <v>0</v>
+      </c>
+      <c r="W19">
+        <v>0</v>
+      </c>
+      <c r="X19">
+        <v>0</v>
+      </c>
+      <c r="Y19">
+        <v>0</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+      <c r="AA19">
+        <v>0</v>
+      </c>
+      <c r="AB19">
+        <v>0</v>
+      </c>
+      <c r="AC19">
+        <v>0</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AE19">
+        <v>0</v>
+      </c>
+      <c r="AF19">
+        <v>2043.875</v>
+      </c>
+      <c r="AG19">
+        <v>2043.875</v>
+      </c>
+      <c r="AH19">
+        <v>2043.875</v>
+      </c>
+      <c r="AI19">
+        <v>2043.875</v>
+      </c>
+      <c r="AJ19">
+        <v>2043.875</v>
+      </c>
+      <c r="AK19">
+        <v>2043.875</v>
+      </c>
+      <c r="AL19">
+        <v>2043.875</v>
+      </c>
+      <c r="AM19">
+        <v>2043.875</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>06/2019</v>
+      </c>
+      <c r="B20">
+        <v>43584</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>43584</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>16344</v>
+      </c>
+      <c r="M20">
+        <v>16344</v>
+      </c>
+      <c r="N20">
+        <v>10896</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <v>0</v>
+      </c>
+      <c r="U20">
+        <v>0</v>
+      </c>
+      <c r="V20">
+        <v>0</v>
+      </c>
+      <c r="W20">
+        <v>0</v>
+      </c>
+      <c r="X20">
+        <v>0</v>
+      </c>
+      <c r="Y20">
+        <v>0</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+      <c r="AA20">
+        <v>0</v>
+      </c>
+      <c r="AB20">
+        <v>0</v>
+      </c>
+      <c r="AC20">
+        <v>0</v>
+      </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AE20">
+        <v>0</v>
+      </c>
+      <c r="AF20">
+        <v>0</v>
+      </c>
+      <c r="AG20">
+        <v>5448</v>
+      </c>
+      <c r="AH20">
+        <v>5448</v>
+      </c>
+      <c r="AI20">
+        <v>5448</v>
+      </c>
+      <c r="AJ20">
+        <v>5448</v>
+      </c>
+      <c r="AK20">
+        <v>5448</v>
+      </c>
+      <c r="AL20">
+        <v>5448</v>
+      </c>
+      <c r="AM20">
+        <v>5448</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>07/2019</v>
+      </c>
+      <c r="B21">
+        <v>67803</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>67803</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>25426.125</v>
+      </c>
+      <c r="N21">
+        <v>25426.125</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <v>0</v>
+      </c>
+      <c r="V21">
+        <v>0</v>
+      </c>
+      <c r="W21">
+        <v>0</v>
+      </c>
+      <c r="X21">
+        <v>0</v>
+      </c>
+      <c r="Y21">
+        <v>0</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+      <c r="AA21">
+        <v>0</v>
+      </c>
+      <c r="AB21">
+        <v>0</v>
+      </c>
+      <c r="AC21">
+        <v>0</v>
+      </c>
+      <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AE21">
+        <v>0</v>
+      </c>
+      <c r="AF21">
+        <v>0</v>
+      </c>
+      <c r="AG21">
+        <v>0</v>
+      </c>
+      <c r="AH21">
+        <v>8475.375</v>
+      </c>
+      <c r="AI21">
+        <v>8475.375</v>
+      </c>
+      <c r="AJ21">
+        <v>8475.375</v>
+      </c>
+      <c r="AK21">
+        <v>8475.375</v>
+      </c>
+      <c r="AL21">
+        <v>8475.375</v>
+      </c>
+      <c r="AM21">
+        <v>8475.375</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>08/2019</v>
+      </c>
+      <c r="B22">
+        <v>23404</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>23404</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>8776.5</v>
+      </c>
+      <c r="N22">
+        <v>8776.5</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <v>0</v>
+      </c>
+      <c r="V22">
+        <v>0</v>
+      </c>
+      <c r="W22">
+        <v>0</v>
+      </c>
+      <c r="X22">
+        <v>0</v>
+      </c>
+      <c r="Y22">
+        <v>0</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+      <c r="AA22">
+        <v>0</v>
+      </c>
+      <c r="AB22">
+        <v>0</v>
+      </c>
+      <c r="AC22">
+        <v>0</v>
+      </c>
+      <c r="AD22">
+        <v>0</v>
+      </c>
+      <c r="AE22">
+        <v>0</v>
+      </c>
+      <c r="AF22">
+        <v>0</v>
+      </c>
+      <c r="AG22">
+        <v>0</v>
+      </c>
+      <c r="AH22">
+        <v>0</v>
+      </c>
+      <c r="AI22">
+        <v>2925.5</v>
+      </c>
+      <c r="AJ22">
+        <v>2925.5</v>
+      </c>
+      <c r="AK22">
+        <v>2925.5</v>
+      </c>
+      <c r="AL22">
+        <v>2925.5</v>
+      </c>
+      <c r="AM22">
+        <v>2925.5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>09/2019</v>
+      </c>
+      <c r="B23">
+        <v>93204</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>93204</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>34951.5</v>
+      </c>
+      <c r="N23">
+        <v>34951.5</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <v>0</v>
+      </c>
+      <c r="U23">
+        <v>0</v>
+      </c>
+      <c r="V23">
+        <v>0</v>
+      </c>
+      <c r="W23">
+        <v>0</v>
+      </c>
+      <c r="X23">
+        <v>0</v>
+      </c>
+      <c r="Y23">
+        <v>0</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+      <c r="AA23">
+        <v>0</v>
+      </c>
+      <c r="AB23">
+        <v>0</v>
+      </c>
+      <c r="AC23">
+        <v>0</v>
+      </c>
+      <c r="AD23">
+        <v>0</v>
+      </c>
+      <c r="AE23">
+        <v>0</v>
+      </c>
+      <c r="AF23">
+        <v>0</v>
+      </c>
+      <c r="AG23">
+        <v>0</v>
+      </c>
+      <c r="AH23">
+        <v>0</v>
+      </c>
+      <c r="AI23">
+        <v>0</v>
+      </c>
+      <c r="AJ23">
+        <v>11650.5</v>
+      </c>
+      <c r="AK23">
+        <v>11650.5</v>
+      </c>
+      <c r="AL23">
+        <v>11650.5</v>
+      </c>
+      <c r="AM23">
+        <v>11650.5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>10/2019</v>
+      </c>
+      <c r="B24">
+        <v>11333</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>11333</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>4249.875</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+      <c r="T24">
+        <v>0</v>
+      </c>
+      <c r="U24">
+        <v>0</v>
+      </c>
+      <c r="V24">
+        <v>0</v>
+      </c>
+      <c r="W24">
+        <v>0</v>
+      </c>
+      <c r="X24">
+        <v>0</v>
+      </c>
+      <c r="Y24">
+        <v>0</v>
+      </c>
+      <c r="Z24">
+        <v>0</v>
+      </c>
+      <c r="AA24">
+        <v>0</v>
+      </c>
+      <c r="AB24">
+        <v>0</v>
+      </c>
+      <c r="AC24">
+        <v>0</v>
+      </c>
+      <c r="AD24">
+        <v>0</v>
+      </c>
+      <c r="AE24">
+        <v>0</v>
+      </c>
+      <c r="AF24">
+        <v>0</v>
+      </c>
+      <c r="AG24">
+        <v>0</v>
+      </c>
+      <c r="AH24">
+        <v>0</v>
+      </c>
+      <c r="AI24">
+        <v>0</v>
+      </c>
+      <c r="AJ24">
+        <v>0</v>
+      </c>
+      <c r="AK24">
+        <v>1416.625</v>
+      </c>
+      <c r="AL24">
+        <v>1416.625</v>
+      </c>
+      <c r="AM24">
+        <v>1416.625</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>11/2019</v>
+      </c>
+      <c r="B25">
+        <v>17372</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>17372</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>6514.5</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>0</v>
+      </c>
+      <c r="T25">
+        <v>0</v>
+      </c>
+      <c r="U25">
+        <v>0</v>
+      </c>
+      <c r="V25">
+        <v>0</v>
+      </c>
+      <c r="W25">
+        <v>0</v>
+      </c>
+      <c r="X25">
+        <v>0</v>
+      </c>
+      <c r="Y25">
+        <v>0</v>
+      </c>
+      <c r="Z25">
+        <v>0</v>
+      </c>
+      <c r="AA25">
+        <v>0</v>
+      </c>
+      <c r="AB25">
+        <v>0</v>
+      </c>
+      <c r="AC25">
+        <v>0</v>
+      </c>
+      <c r="AD25">
+        <v>0</v>
+      </c>
+      <c r="AE25">
+        <v>0</v>
+      </c>
+      <c r="AF25">
+        <v>0</v>
+      </c>
+      <c r="AG25">
+        <v>0</v>
+      </c>
+      <c r="AH25">
+        <v>0</v>
+      </c>
+      <c r="AI25">
+        <v>0</v>
+      </c>
+      <c r="AJ25">
+        <v>0</v>
+      </c>
+      <c r="AK25">
+        <v>0</v>
+      </c>
+      <c r="AL25">
+        <v>2171.5</v>
+      </c>
+      <c r="AM25">
+        <v>2171.5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>12/2019</v>
+      </c>
+      <c r="B26">
+        <v>74726</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>74726</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>28022.25</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>0</v>
+      </c>
+      <c r="R26">
+        <v>0</v>
+      </c>
+      <c r="S26">
+        <v>0</v>
+      </c>
+      <c r="T26">
+        <v>0</v>
+      </c>
+      <c r="U26">
+        <v>0</v>
+      </c>
+      <c r="V26">
+        <v>0</v>
+      </c>
+      <c r="W26">
+        <v>0</v>
+      </c>
+      <c r="X26">
+        <v>0</v>
+      </c>
+      <c r="Y26">
+        <v>0</v>
+      </c>
+      <c r="Z26">
+        <v>0</v>
+      </c>
+      <c r="AA26">
+        <v>0</v>
+      </c>
+      <c r="AB26">
+        <v>0</v>
+      </c>
+      <c r="AC26">
+        <v>0</v>
+      </c>
+      <c r="AD26">
+        <v>0</v>
+      </c>
+      <c r="AE26">
+        <v>0</v>
+      </c>
+      <c r="AF26">
+        <v>0</v>
+      </c>
+      <c r="AG26">
+        <v>0</v>
+      </c>
+      <c r="AH26">
+        <v>0</v>
+      </c>
+      <c r="AI26">
+        <v>0</v>
+      </c>
+      <c r="AJ26">
+        <v>0</v>
+      </c>
+      <c r="AK26">
+        <v>0</v>
+      </c>
+      <c r="AL26">
+        <v>0</v>
+      </c>
+      <c r="AM26">
+        <v>9340.75</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:AM26"/>
   </ignoredErrors>
 </worksheet>
 </file>